--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="n">
         <v>411</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" t="n">
         <v>286</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D9" t="n">
         <v>293</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D11" t="n">
         <v>283</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5585</t>
+          <t>5587</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1815</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>744</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="n">
         <v>411</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D4" t="n">
         <v>297</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D10" t="n">
         <v>282</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D11" t="n">
         <v>283</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D14" t="n">
         <v>317</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D15" t="n">
         <v>305</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D16" t="n">
         <v>286</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5592</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" t="n">
         <v>411</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" t="n">
         <v>286</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" t="n">
         <v>288</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D9" t="n">
         <v>293</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D11" t="n">
         <v>283</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D12" t="n">
         <v>313</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D13" t="n">
         <v>308</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D14" t="n">
         <v>317</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D15" t="n">
         <v>305</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D16" t="n">
         <v>286</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5592</t>
+          <t>5582</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1809</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>742</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>142</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" t="n">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="E2" t="n">
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="F2" t="n">
-        <v>567</v>
+        <v>432</v>
       </c>
       <c r="G2" t="n">
-        <v>687</v>
+        <v>495</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" t="n">
-        <v>383</v>
+        <v>308</v>
       </c>
       <c r="E3" t="n">
-        <v>457</v>
+        <v>360</v>
       </c>
       <c r="F3" t="n">
-        <v>531</v>
+        <v>407</v>
       </c>
       <c r="G3" t="n">
-        <v>645</v>
+        <v>478</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,16 +554,16 @@
         <v>213</v>
       </c>
       <c r="D4" t="n">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F4" t="n">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="G4" t="n">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         <v>193</v>
       </c>
       <c r="D5" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E5" t="n">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="F5" t="n">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="G5" t="n">
-        <v>519</v>
+        <v>458</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -624,16 +624,16 @@
         <v>177</v>
       </c>
       <c r="D6" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E6" t="n">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F6" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G6" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E7" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F7" t="n">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G7" t="n">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D8" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E8" t="n">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F8" t="n">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G8" t="n">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D9" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E9" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F9" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G9" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D10" t="n">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E10" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F10" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G10" t="n">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D11" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E11" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F11" t="n">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G11" t="n">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D12" t="n">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E12" t="n">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="F12" t="n">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="G12" t="n">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D13" t="n">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E13" t="n">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="F13" t="n">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="G13" t="n">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D14" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E14" t="n">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="F14" t="n">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="G14" t="n">
-        <v>566</v>
+        <v>525</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         <v>457</v>
       </c>
       <c r="D15" t="n">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="E15" t="n">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="F15" t="n">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="G15" t="n">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         <v>443</v>
       </c>
       <c r="D16" t="n">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E16" t="n">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="F16" t="n">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="G16" t="n">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D17" t="n">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="E17" t="n">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="F17" t="n">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="G17" t="n">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5582</t>
+          <t>5587</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1814</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>743</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>503</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>144</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
         <v>340</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D3" t="n">
         <v>308</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D5" t="n">
         <v>290</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" t="n">
         <v>296</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" t="n">
         <v>293</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D11" t="n">
         <v>286</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D12" t="n">
         <v>289</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D13" t="n">
         <v>287</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D15" t="n">
         <v>278</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D16" t="n">
         <v>267</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D17" t="n">
         <v>262</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5591</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1816</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>745</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" t="n">
         <v>291</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" t="n">
         <v>290</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" t="n">
         <v>296</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D8" t="n">
         <v>286</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D10" t="n">
         <v>291</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D11" t="n">
         <v>286</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D12" t="n">
         <v>289</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D14" t="n">
         <v>291</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D17" t="n">
         <v>262</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5591</t>
+          <t>5590</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>1813</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>742</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B2" t="n">
+        <v>127.9402758451239</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>157.7947587940118</v>
       </c>
       <c r="D2" t="n">
         <v>340</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>495</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>-197</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-57.94117647058824</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-247</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-63.33333333333333</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-289</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-66.89814814814815</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-352</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-71.11111111111111</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A3" t="n">
+        <v>198</v>
+      </c>
+      <c r="B3" t="n">
+        <v>182.7111916714456</v>
       </c>
       <c r="C3" t="n">
-        <v>194</v>
+        <v>212.496299765385</v>
       </c>
       <c r="D3" t="n">
         <v>308</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>478</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>-110</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-35.71428571428572</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-162</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-45</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-209</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-51.35135135135135</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-280</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-58.57740585774059</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A4" t="n">
+        <v>216</v>
+      </c>
+      <c r="B4" t="n">
+        <v>200.5073936910288</v>
       </c>
       <c r="C4" t="n">
-        <v>212</v>
+        <v>230.6401295132499</v>
       </c>
       <c r="D4" t="n">
         <v>291</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>453</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>-75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-25.77319587628866</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-125</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-36.65689149560117</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-169</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-43.8961038961039</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-237</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-52.31788079470198</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A5" t="n">
+        <v>194</v>
+      </c>
+      <c r="B5" t="n">
+        <v>178.4226570694848</v>
       </c>
       <c r="C5" t="n">
-        <v>193</v>
+        <v>208.8322245692847</v>
       </c>
       <c r="D5" t="n">
         <v>290</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>458</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>-96</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-33.10344827586207</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-146</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-42.94117647058823</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-193</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-49.87080103359173</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-264</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-57.64192139737992</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A6" t="n">
+        <v>176</v>
+      </c>
+      <c r="B6" t="n">
+        <v>160.950132793188</v>
       </c>
       <c r="C6" t="n">
-        <v>177</v>
+        <v>190.8900129840366</v>
       </c>
       <c r="D6" t="n">
         <v>296</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>484</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>-120</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-40.54054054054054</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-174</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-49.71428571428572</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-227</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-56.32754342431762</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-308</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-63.63636363636363</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A7" t="n">
+        <v>210</v>
+      </c>
+      <c r="B7" t="n">
+        <v>195.9081470150192</v>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>224.9448445583917</v>
       </c>
       <c r="D7" t="n">
         <v>293</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>463</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>-83</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-28.32764505119454</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-135</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-39.1304347826087</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-182</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-46.42857142857143</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-253</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-54.64362850971922</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A8" t="n">
+        <v>296</v>
+      </c>
+      <c r="B8" t="n">
+        <v>281.9284891764544</v>
       </c>
       <c r="C8" t="n">
-        <v>296</v>
+        <v>310.9689957494315</v>
       </c>
       <c r="D8" t="n">
         <v>286</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>499</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.496503496503497</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-48</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-13.95348837209302</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-26.73267326732674</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-203</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-40.6813627254509</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A9" t="n">
+        <v>388</v>
+      </c>
+      <c r="B9" t="n">
+        <v>373.5465236411173</v>
       </c>
       <c r="C9" t="n">
-        <v>388</v>
+        <v>403.0235215179192</v>
       </c>
       <c r="D9" t="n">
         <v>299</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>508</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>89</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29.76588628762542</v>
+      </c>
+      <c r="J9" t="n">
+        <v>31</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.683473389355742</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-28</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6.730769230769231</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-120</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-23.62204724409449</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A10" t="n">
+        <v>447</v>
+      </c>
+      <c r="B10" t="n">
+        <v>433.507438823043</v>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>461.1363684789027</v>
       </c>
       <c r="D10" t="n">
         <v>291</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>477</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>156</v>
+      </c>
+      <c r="I10" t="n">
+        <v>53.60824742268041</v>
+      </c>
+      <c r="J10" t="n">
+        <v>102</v>
+      </c>
+      <c r="K10" t="n">
+        <v>29.56521739130435</v>
+      </c>
+      <c r="L10" t="n">
+        <v>50</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12.59445843828715</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-30</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-6.289308176100629</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A11" t="n">
+        <v>480</v>
+      </c>
+      <c r="B11" t="n">
+        <v>463.6397467020072</v>
       </c>
       <c r="C11" t="n">
-        <v>480</v>
+        <v>496.768072138938</v>
       </c>
       <c r="D11" t="n">
         <v>286</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>485</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>194</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67.83216783216784</v>
+      </c>
+      <c r="J11" t="n">
+        <v>139</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40.76246334310851</v>
+      </c>
+      <c r="L11" t="n">
+        <v>83</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.90680100755667</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1.030927835051546</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A12" t="n">
+        <v>497</v>
+      </c>
+      <c r="B12" t="n">
+        <v>481.9110032496793</v>
       </c>
       <c r="C12" t="n">
-        <v>497</v>
+        <v>511.1881447133935</v>
       </c>
       <c r="D12" t="n">
         <v>289</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>510</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>208</v>
+      </c>
+      <c r="I12" t="n">
+        <v>71.97231833910035</v>
+      </c>
+      <c r="J12" t="n">
+        <v>149</v>
+      </c>
+      <c r="K12" t="n">
+        <v>42.81609195402299</v>
+      </c>
+      <c r="L12" t="n">
+        <v>86</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.92457420924574</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-2.549019607843137</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A13" t="n">
+        <v>503</v>
+      </c>
+      <c r="B13" t="n">
+        <v>488.409058111569</v>
       </c>
       <c r="C13" t="n">
-        <v>502</v>
+        <v>516.7071555830087</v>
       </c>
       <c r="D13" t="n">
         <v>287</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>529</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>216</v>
+      </c>
+      <c r="I13" t="n">
+        <v>75.26132404181185</v>
+      </c>
+      <c r="J13" t="n">
+        <v>154</v>
+      </c>
+      <c r="K13" t="n">
+        <v>44.12607449856733</v>
+      </c>
+      <c r="L13" t="n">
+        <v>85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.33492822966507</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-26</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-4.914933837429111</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A14" t="n">
+        <v>486</v>
+      </c>
+      <c r="B14" t="n">
+        <v>471.6594500971899</v>
       </c>
       <c r="C14" t="n">
-        <v>487</v>
+        <v>500.7782662058035</v>
       </c>
       <c r="D14" t="n">
         <v>291</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>525</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>195</v>
+      </c>
+      <c r="I14" t="n">
+        <v>67.0103092783505</v>
+      </c>
+      <c r="J14" t="n">
+        <v>134</v>
+      </c>
+      <c r="K14" t="n">
+        <v>38.06818181818182</v>
+      </c>
+      <c r="L14" t="n">
+        <v>67</v>
+      </c>
+      <c r="M14" t="n">
+        <v>15.99045346062052</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-39</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-7.428571428571429</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A15" t="n">
+        <v>454</v>
+      </c>
+      <c r="B15" t="n">
+        <v>440.9705440155768</v>
       </c>
       <c r="C15" t="n">
-        <v>458</v>
+        <v>467.9610650239388</v>
       </c>
       <c r="D15" t="n">
         <v>278</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>517</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>176</v>
+      </c>
+      <c r="I15" t="n">
+        <v>63.30935251798561</v>
+      </c>
+      <c r="J15" t="n">
+        <v>117</v>
+      </c>
+      <c r="K15" t="n">
+        <v>34.71810089020772</v>
+      </c>
+      <c r="L15" t="n">
+        <v>47</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11.54791154791155</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-63</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-12.18568665377176</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A16" t="n">
+        <v>443</v>
+      </c>
+      <c r="B16" t="n">
+        <v>428.1541966656164</v>
       </c>
       <c r="C16" t="n">
-        <v>444</v>
+        <v>458.7512298620626</v>
       </c>
       <c r="D16" t="n">
         <v>267</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>507</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>176</v>
+      </c>
+      <c r="I16" t="n">
+        <v>65.91760299625467</v>
+      </c>
+      <c r="J16" t="n">
+        <v>118</v>
+      </c>
+      <c r="K16" t="n">
+        <v>36.30769230769231</v>
+      </c>
+      <c r="L16" t="n">
+        <v>48</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12.15189873417721</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-64</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-12.6232741617357</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
+      <c r="A17" t="n">
+        <v>461</v>
+      </c>
+      <c r="B17" t="n">
+        <v>446.5538668322036</v>
       </c>
       <c r="C17" t="n">
-        <v>459</v>
+        <v>475.6546929549381</v>
       </c>
       <c r="D17" t="n">
         <v>262</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>493</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>199</v>
+      </c>
+      <c r="I17" t="n">
+        <v>75.95419847328245</v>
+      </c>
+      <c r="J17" t="n">
+        <v>142</v>
+      </c>
+      <c r="K17" t="n">
+        <v>44.5141065830721</v>
+      </c>
+      <c r="L17" t="n">
+        <v>75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>19.4300518134715</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-32</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-6.490872210953347</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5592</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>1821</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>751</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>503</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,19 +425,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>yhat</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
@@ -460,79 +460,28 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Diff_Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Pct_Mean Forecast</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Diff_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Pct_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diff_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Pct_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diff_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Pct_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>143</v>
-      </c>
-      <c r="B2" t="n">
-        <v>127.9402758451239</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>157.7947587940118</v>
+        <v>273</v>
       </c>
       <c r="D2" t="n">
         <v>340</v>
@@ -546,61 +495,28 @@
       <c r="G2" t="n">
         <v>495</v>
       </c>
-      <c r="H2" t="n">
-        <v>-197</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-57.94117647058824</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-247</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-63.33333333333333</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-289</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-66.89814814814815</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-352</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-71.11111111111111</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>198</v>
-      </c>
-      <c r="B3" t="n">
-        <v>182.7111916714456</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>212.496299765385</v>
+        <v>252</v>
       </c>
       <c r="D3" t="n">
         <v>308</v>
@@ -614,61 +530,28 @@
       <c r="G3" t="n">
         <v>478</v>
       </c>
-      <c r="H3" t="n">
-        <v>-110</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-35.71428571428572</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-162</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-45</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-209</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-51.35135135135135</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-280</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-58.57740585774059</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>216</v>
-      </c>
-      <c r="B4" t="n">
-        <v>200.5073936910288</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>230.6401295132499</v>
+        <v>239</v>
       </c>
       <c r="D4" t="n">
         <v>291</v>
@@ -682,61 +565,28 @@
       <c r="G4" t="n">
         <v>453</v>
       </c>
-      <c r="H4" t="n">
-        <v>-75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-25.77319587628866</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-125</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-36.65689149560117</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-169</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-43.8961038961039</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-237</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-52.31788079470198</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>194</v>
-      </c>
-      <c r="B5" t="n">
-        <v>178.4226570694848</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>208.8322245692847</v>
+        <v>238</v>
       </c>
       <c r="D5" t="n">
         <v>290</v>
@@ -750,61 +600,28 @@
       <c r="G5" t="n">
         <v>458</v>
       </c>
-      <c r="H5" t="n">
-        <v>-96</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-33.10344827586207</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-146</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-42.94117647058823</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-193</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-49.87080103359173</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-264</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-57.64192139737992</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>176</v>
-      </c>
-      <c r="B6" t="n">
-        <v>160.950132793188</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>190.8900129840366</v>
+        <v>245</v>
       </c>
       <c r="D6" t="n">
         <v>296</v>
@@ -818,61 +635,28 @@
       <c r="G6" t="n">
         <v>484</v>
       </c>
-      <c r="H6" t="n">
-        <v>-120</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-40.54054054054054</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-174</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-49.71428571428572</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-227</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-56.32754342431762</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-308</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>210</v>
-      </c>
-      <c r="B7" t="n">
-        <v>195.9081470150192</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>224.9448445583917</v>
+        <v>241</v>
       </c>
       <c r="D7" t="n">
         <v>293</v>
@@ -886,61 +670,28 @@
       <c r="G7" t="n">
         <v>463</v>
       </c>
-      <c r="H7" t="n">
-        <v>-83</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-28.32764505119454</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-135</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-182</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-46.42857142857143</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-253</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-54.64362850971922</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>296</v>
-      </c>
-      <c r="B8" t="n">
-        <v>281.9284891764544</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>310.9689957494315</v>
+        <v>282</v>
       </c>
       <c r="D8" t="n">
         <v>286</v>
@@ -954,61 +705,28 @@
       <c r="G8" t="n">
         <v>499</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.496503496503497</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-48</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-13.95348837209302</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-108</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-26.73267326732674</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-203</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-40.6813627254509</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>388</v>
-      </c>
-      <c r="B9" t="n">
-        <v>373.5465236411173</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>403.0235215179192</v>
+        <v>374</v>
       </c>
       <c r="D9" t="n">
         <v>299</v>
@@ -1022,61 +740,28 @@
       <c r="G9" t="n">
         <v>508</v>
       </c>
-      <c r="H9" t="n">
-        <v>89</v>
-      </c>
-      <c r="I9" t="n">
-        <v>29.76588628762542</v>
-      </c>
-      <c r="J9" t="n">
-        <v>31</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.683473389355742</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-28</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-6.730769230769231</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-120</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-23.62204724409449</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>447</v>
-      </c>
-      <c r="B10" t="n">
-        <v>433.507438823043</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>461.1363684789027</v>
+        <v>434</v>
       </c>
       <c r="D10" t="n">
         <v>291</v>
@@ -1090,61 +775,28 @@
       <c r="G10" t="n">
         <v>477</v>
       </c>
-      <c r="H10" t="n">
-        <v>156</v>
-      </c>
-      <c r="I10" t="n">
-        <v>53.60824742268041</v>
-      </c>
-      <c r="J10" t="n">
-        <v>102</v>
-      </c>
-      <c r="K10" t="n">
-        <v>29.56521739130435</v>
-      </c>
-      <c r="L10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M10" t="n">
-        <v>12.59445843828715</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-30</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-6.289308176100629</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>480</v>
-      </c>
-      <c r="B11" t="n">
-        <v>463.6397467020072</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>496.768072138938</v>
+        <v>464</v>
       </c>
       <c r="D11" t="n">
         <v>286</v>
@@ -1158,61 +810,28 @@
       <c r="G11" t="n">
         <v>485</v>
       </c>
-      <c r="H11" t="n">
-        <v>194</v>
-      </c>
-      <c r="I11" t="n">
-        <v>67.83216783216784</v>
-      </c>
-      <c r="J11" t="n">
-        <v>139</v>
-      </c>
-      <c r="K11" t="n">
-        <v>40.76246334310851</v>
-      </c>
-      <c r="L11" t="n">
-        <v>83</v>
-      </c>
-      <c r="M11" t="n">
-        <v>20.90680100755667</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-1.030927835051546</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>497</v>
-      </c>
-      <c r="B12" t="n">
-        <v>481.9110032496793</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>511.1881447133935</v>
+        <v>482</v>
       </c>
       <c r="D12" t="n">
         <v>289</v>
@@ -1226,61 +845,28 @@
       <c r="G12" t="n">
         <v>510</v>
       </c>
-      <c r="H12" t="n">
-        <v>208</v>
-      </c>
-      <c r="I12" t="n">
-        <v>71.97231833910035</v>
-      </c>
-      <c r="J12" t="n">
-        <v>149</v>
-      </c>
-      <c r="K12" t="n">
-        <v>42.81609195402299</v>
-      </c>
-      <c r="L12" t="n">
-        <v>86</v>
-      </c>
-      <c r="M12" t="n">
-        <v>20.92457420924574</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-2.549019607843137</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>503</v>
-      </c>
-      <c r="B13" t="n">
-        <v>488.409058111569</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>516.7071555830087</v>
+        <v>488</v>
       </c>
       <c r="D13" t="n">
         <v>287</v>
@@ -1294,61 +880,28 @@
       <c r="G13" t="n">
         <v>529</v>
       </c>
-      <c r="H13" t="n">
-        <v>216</v>
-      </c>
-      <c r="I13" t="n">
-        <v>75.26132404181185</v>
-      </c>
-      <c r="J13" t="n">
-        <v>154</v>
-      </c>
-      <c r="K13" t="n">
-        <v>44.12607449856733</v>
-      </c>
-      <c r="L13" t="n">
-        <v>85</v>
-      </c>
-      <c r="M13" t="n">
-        <v>20.33492822966507</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-26</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-4.914933837429111</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>486</v>
-      </c>
-      <c r="B14" t="n">
-        <v>471.6594500971899</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>500.7782662058035</v>
+        <v>472</v>
       </c>
       <c r="D14" t="n">
         <v>291</v>
@@ -1362,61 +915,28 @@
       <c r="G14" t="n">
         <v>525</v>
       </c>
-      <c r="H14" t="n">
-        <v>195</v>
-      </c>
-      <c r="I14" t="n">
-        <v>67.0103092783505</v>
-      </c>
-      <c r="J14" t="n">
-        <v>134</v>
-      </c>
-      <c r="K14" t="n">
-        <v>38.06818181818182</v>
-      </c>
-      <c r="L14" t="n">
-        <v>67</v>
-      </c>
-      <c r="M14" t="n">
-        <v>15.99045346062052</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-39</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-7.428571428571429</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>454</v>
-      </c>
-      <c r="B15" t="n">
-        <v>440.9705440155768</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>467.9610650239388</v>
+        <v>441</v>
       </c>
       <c r="D15" t="n">
         <v>278</v>
@@ -1430,61 +950,28 @@
       <c r="G15" t="n">
         <v>517</v>
       </c>
-      <c r="H15" t="n">
-        <v>176</v>
-      </c>
-      <c r="I15" t="n">
-        <v>63.30935251798561</v>
-      </c>
-      <c r="J15" t="n">
-        <v>117</v>
-      </c>
-      <c r="K15" t="n">
-        <v>34.71810089020772</v>
-      </c>
-      <c r="L15" t="n">
-        <v>47</v>
-      </c>
-      <c r="M15" t="n">
-        <v>11.54791154791155</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-63</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-12.18568665377176</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>443</v>
-      </c>
-      <c r="B16" t="n">
-        <v>428.1541966656164</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>458.7512298620626</v>
+        <v>428</v>
       </c>
       <c r="D16" t="n">
         <v>267</v>
@@ -1498,61 +985,28 @@
       <c r="G16" t="n">
         <v>507</v>
       </c>
-      <c r="H16" t="n">
-        <v>176</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65.91760299625467</v>
-      </c>
-      <c r="J16" t="n">
-        <v>118</v>
-      </c>
-      <c r="K16" t="n">
-        <v>36.30769230769231</v>
-      </c>
-      <c r="L16" t="n">
-        <v>48</v>
-      </c>
-      <c r="M16" t="n">
-        <v>12.15189873417721</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-64</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-12.6232741617357</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>461</v>
-      </c>
-      <c r="B17" t="n">
-        <v>446.5538668322036</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>475.6546929549381</v>
+        <v>447</v>
       </c>
       <c r="D17" t="n">
         <v>262</v>
@@ -1566,50 +1020,13 @@
       <c r="G17" t="n">
         <v>493</v>
       </c>
-      <c r="H17" t="n">
-        <v>199</v>
-      </c>
-      <c r="I17" t="n">
-        <v>75.95419847328245</v>
-      </c>
-      <c r="J17" t="n">
-        <v>142</v>
-      </c>
-      <c r="K17" t="n">
-        <v>44.5141065830721</v>
-      </c>
-      <c r="L17" t="n">
-        <v>75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>19.4300518134715</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-32</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-6.490872210953347</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5592</t>
+          <t>5800</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>2144</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>1002</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>488</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>238</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>273</v>
+        <v>570</v>
       </c>
       <c r="D2" t="n">
-        <v>340</v>
+        <v>603</v>
       </c>
       <c r="E2" t="n">
-        <v>390</v>
+        <v>713</v>
       </c>
       <c r="F2" t="n">
-        <v>432</v>
+        <v>818</v>
       </c>
       <c r="G2" t="n">
-        <v>495</v>
+        <v>980</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>252</v>
+        <v>392</v>
       </c>
       <c r="D3" t="n">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="E3" t="n">
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="F3" t="n">
-        <v>407</v>
+        <v>567</v>
       </c>
       <c r="G3" t="n">
-        <v>478</v>
+        <v>687</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>239</v>
+        <v>366</v>
       </c>
       <c r="D4" t="n">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="E4" t="n">
-        <v>341</v>
+        <v>457</v>
       </c>
       <c r="F4" t="n">
-        <v>385</v>
+        <v>531</v>
       </c>
       <c r="G4" t="n">
-        <v>453</v>
+        <v>645</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="D5" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E5" t="n">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F5" t="n">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="G5" t="n">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="D6" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F6" t="n">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="G6" t="n">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="D7" t="n">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E7" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F7" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="G7" t="n">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D8" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E8" t="n">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F8" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G8" t="n">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="D9" t="n">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E9" t="n">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F9" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G9" t="n">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="D10" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E10" t="n">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F10" t="n">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="G10" t="n">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="D11" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E11" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F11" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G11" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="D12" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E12" t="n">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F12" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G12" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D13" t="n">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E13" t="n">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F13" t="n">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="G13" t="n">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D14" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E14" t="n">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F14" t="n">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G14" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="D15" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E15" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F15" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G15" t="n">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D16" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E16" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F16" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G16" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D17" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E17" t="n">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F17" t="n">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G17" t="n">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-26 to 2024-12-01</t>
+          <t>2023-02-26 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>401</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>189</t>
         </is>
       </c>
     </row>
@@ -1123,60 +1123,60 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev Sales</t>
+          <t>Std Dev</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>107</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Historical Sales</t>
+          <t>Total Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10795 units</t>
+          <t>10369</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total Forecast (16 Weeks)</t>
+          <t>4 Weeks Forecast</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>1610</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Forecast (8 Weeks)</t>
+          <t>8 Weeks Forecast</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>2732</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Forecast (4 Weeks)</t>
+          <t>16 Weeks Forecast</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>6304</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>570</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>273</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>570</v>
+        <v>175</v>
       </c>
       <c r="D2" t="n">
         <v>603</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>392</v>
+        <v>188.5</v>
       </c>
       <c r="D3" t="n">
         <v>411</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="D4" t="n">
         <v>383</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="D5" t="n">
         <v>297</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>284</v>
+        <v>212.5</v>
       </c>
       <c r="D6" t="n">
         <v>295</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>274</v>
+        <v>200.5</v>
       </c>
       <c r="D7" t="n">
         <v>286</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>273</v>
+        <v>225.5</v>
       </c>
       <c r="D8" t="n">
         <v>281</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="D9" t="n">
         <v>288</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>374</v>
+        <v>311.5</v>
       </c>
       <c r="D10" t="n">
         <v>293</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>428</v>
+        <v>333.5</v>
       </c>
       <c r="D11" t="n">
         <v>282</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>460</v>
+        <v>354.5</v>
       </c>
       <c r="D12" t="n">
         <v>283</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>485</v>
+        <v>362</v>
       </c>
       <c r="D13" t="n">
         <v>273</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>492</v>
+        <v>370.5</v>
       </c>
       <c r="D14" t="n">
         <v>284</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>470</v>
+        <v>354.5</v>
       </c>
       <c r="D15" t="n">
         <v>275</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>436</v>
+        <v>342.5</v>
       </c>
       <c r="D16" t="n">
         <v>268</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="D17" t="n">
         <v>269</v>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev</t>
+          <t>Std Dev Sales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Sales</t>
+          <t>Total Historical Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10369</t>
+          <t>10369 units</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4 Weeks Forecast</t>
+          <t>Total Forecast (16 Weeks)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>4478</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8 Weeks Forecast</t>
+          <t>Total Forecast (8 Weeks)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>1716</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16 Weeks Forecast</t>
+          <t>Total Forecast (4 Weeks)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6304</t>
+          <t>812</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>370</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>175</v>
+        <v>86.2</v>
       </c>
       <c r="D2" t="n">
         <v>603</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>188.5</v>
+        <v>113.5</v>
       </c>
       <c r="D3" t="n">
         <v>411</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>224</v>
+        <v>146.2</v>
       </c>
       <c r="D4" t="n">
         <v>383</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="D5" t="n">
         <v>297</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>212.5</v>
+        <v>132.8</v>
       </c>
       <c r="D6" t="n">
         <v>295</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200.5</v>
+        <v>129.1</v>
       </c>
       <c r="D7" t="n">
         <v>286</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>225.5</v>
+        <v>141</v>
       </c>
       <c r="D8" t="n">
         <v>281</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>265</v>
+        <v>181.5</v>
       </c>
       <c r="D9" t="n">
         <v>288</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>311.5</v>
+        <v>216.6</v>
       </c>
       <c r="D10" t="n">
         <v>293</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>333.5</v>
+        <v>243.6</v>
       </c>
       <c r="D11" t="n">
         <v>282</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>354.5</v>
+        <v>259.6</v>
       </c>
       <c r="D12" t="n">
         <v>283</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>362</v>
+        <v>272.1</v>
       </c>
       <c r="D13" t="n">
         <v>273</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>370.5</v>
+        <v>275.6</v>
       </c>
       <c r="D14" t="n">
         <v>284</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>354.5</v>
+        <v>264.6</v>
       </c>
       <c r="D15" t="n">
         <v>275</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>342.5</v>
+        <v>247.6</v>
       </c>
       <c r="D16" t="n">
         <v>268</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>333</v>
+        <v>243.1</v>
       </c>
       <c r="D17" t="n">
         <v>269</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>3107</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1084</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>500</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>276</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>86</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>86.2</v>
+        <v>275.1</v>
       </c>
       <c r="D2" t="n">
         <v>603</v>
@@ -500,8 +500,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>113.5</v>
+        <v>243.8</v>
       </c>
       <c r="D3" t="n">
         <v>411</v>
@@ -535,8 +535,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>146.2</v>
+        <v>268.6</v>
       </c>
       <c r="D4" t="n">
         <v>383</v>
@@ -570,8 +570,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154</v>
+        <v>250.6</v>
       </c>
       <c r="D5" t="n">
         <v>297</v>
@@ -605,8 +605,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>132.8</v>
+        <v>228.3</v>
       </c>
       <c r="D6" t="n">
         <v>295</v>
@@ -640,8 +640,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>129.1</v>
+        <v>222.9</v>
       </c>
       <c r="D7" t="n">
         <v>286</v>
@@ -675,8 +675,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
+        <v>232.3</v>
       </c>
       <c r="D8" t="n">
         <v>281</v>
@@ -710,8 +710,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>181.5</v>
+        <v>275.4</v>
       </c>
       <c r="D9" t="n">
         <v>288</v>
@@ -745,8 +745,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>216.6</v>
+        <v>312</v>
       </c>
       <c r="D10" t="n">
         <v>293</v>
@@ -780,8 +780,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>243.6</v>
+        <v>335.2</v>
       </c>
       <c r="D11" t="n">
         <v>282</v>
@@ -815,8 +815,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>259.6</v>
+        <v>352.5</v>
       </c>
       <c r="D12" t="n">
         <v>283</v>
@@ -850,8 +850,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>272.1</v>
+        <v>361</v>
       </c>
       <c r="D13" t="n">
         <v>273</v>
@@ -885,8 +885,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>275.6</v>
+        <v>368.3</v>
       </c>
       <c r="D14" t="n">
         <v>284</v>
@@ -920,8 +920,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>264.6</v>
+        <v>354.6</v>
       </c>
       <c r="D15" t="n">
         <v>275</v>
@@ -955,8 +955,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>247.6</v>
+        <v>336</v>
       </c>
       <c r="D16" t="n">
         <v>268</v>
@@ -990,8 +990,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>243.1</v>
+        <v>331.8</v>
       </c>
       <c r="D17" t="n">
         <v>269</v>
@@ -1025,8 +1025,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3107</t>
+          <t>4748</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1038</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>368</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>275.1</v>
+        <v>558.35</v>
       </c>
       <c r="D2" t="n">
         <v>603</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243.8</v>
+        <v>389.5</v>
       </c>
       <c r="D3" t="n">
         <v>411</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>268.6</v>
+        <v>367.4</v>
       </c>
       <c r="D4" t="n">
         <v>383</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>228.3</v>
+        <v>292</v>
       </c>
       <c r="D6" t="n">
         <v>295</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>222.9</v>
+        <v>288.65</v>
       </c>
       <c r="D7" t="n">
         <v>286</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>312</v>
+        <v>275.85</v>
       </c>
       <c r="D10" t="n">
         <v>293</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>335.2</v>
+        <v>266.75</v>
       </c>
       <c r="D11" t="n">
         <v>282</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>352.5</v>
+        <v>268.3</v>
       </c>
       <c r="D12" t="n">
         <v>283</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>361</v>
+        <v>260.2</v>
       </c>
       <c r="D13" t="n">
         <v>273</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>368.3</v>
+        <v>269.2</v>
       </c>
       <c r="D14" t="n">
         <v>284</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>354.6</v>
+        <v>261.85</v>
       </c>
       <c r="D15" t="n">
         <v>275</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>336</v>
+        <v>256.25</v>
       </c>
       <c r="D16" t="n">
         <v>268</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>331.8</v>
+        <v>257.2</v>
       </c>
       <c r="D17" t="n">
         <v>269</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4748</t>
+          <t>4770</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2654</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>1566</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>558</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>232</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -500,8 +500,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>250.6</v>
+        <v>250.1</v>
       </c>
       <c r="D5" t="n">
         <v>297</v>
@@ -605,8 +605,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>232.3</v>
+        <v>232.8</v>
       </c>
       <c r="D8" t="n">
         <v>281</v>
@@ -710,8 +710,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>275.4</v>
+        <v>274.9</v>
       </c>
       <c r="D9" t="n">
         <v>288</v>
@@ -745,8 +745,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>4769</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1565</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>233</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>367.4</v>
+        <v>268.6</v>
       </c>
       <c r="D4" t="n">
         <v>383</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>292</v>
+        <v>228.3</v>
       </c>
       <c r="D6" t="n">
         <v>295</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>288.65</v>
+        <v>222.9</v>
       </c>
       <c r="D7" t="n">
         <v>286</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>274.9</v>
+        <v>275.4</v>
       </c>
       <c r="D9" t="n">
         <v>288</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>275.85</v>
+        <v>311.5</v>
       </c>
       <c r="D10" t="n">
         <v>293</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>266.75</v>
+        <v>335.7</v>
       </c>
       <c r="D11" t="n">
         <v>282</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>4646</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>2426</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>1467</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>222.9</v>
+        <v>222.4</v>
       </c>
       <c r="D7" t="n">
         <v>286</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>275.4</v>
+        <v>274.9</v>
       </c>
       <c r="D9" t="n">
         <v>288</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>311.5</v>
+        <v>312.5</v>
       </c>
       <c r="D10" t="n">
         <v>293</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2426</t>
+          <t>2425</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>558.35</v>
+        <v>558</v>
       </c>
       <c r="D2" t="n">
         <v>603</v>
@@ -500,7 +500,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>389.5</v>
+        <v>390</v>
       </c>
       <c r="D3" t="n">
         <v>411</v>
@@ -535,7 +535,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>268.6</v>
+        <v>269</v>
       </c>
       <c r="D4" t="n">
         <v>383</v>
@@ -570,7 +570,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>250.1</v>
+        <v>250</v>
       </c>
       <c r="D5" t="n">
         <v>297</v>
@@ -605,7 +605,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>228.3</v>
+        <v>228</v>
       </c>
       <c r="D6" t="n">
         <v>295</v>
@@ -640,7 +640,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>222.4</v>
+        <v>222</v>
       </c>
       <c r="D7" t="n">
         <v>286</v>
@@ -675,7 +675,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>232.8</v>
+        <v>232</v>
       </c>
       <c r="D8" t="n">
         <v>281</v>
@@ -710,7 +710,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>274.9</v>
+        <v>276</v>
       </c>
       <c r="D9" t="n">
         <v>288</v>
@@ -745,7 +745,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>312.5</v>
+        <v>312</v>
       </c>
       <c r="D10" t="n">
         <v>293</v>
@@ -780,7 +780,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>335.7</v>
+        <v>335</v>
       </c>
       <c r="D11" t="n">
         <v>282</v>
@@ -815,7 +815,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>268.3</v>
+        <v>268</v>
       </c>
       <c r="D12" t="n">
         <v>283</v>
@@ -850,7 +850,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>260.2</v>
+        <v>260</v>
       </c>
       <c r="D13" t="n">
         <v>273</v>
@@ -885,7 +885,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>269.2</v>
+        <v>269</v>
       </c>
       <c r="D14" t="n">
         <v>284</v>
@@ -920,7 +920,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>261.85</v>
+        <v>262</v>
       </c>
       <c r="D15" t="n">
         <v>275</v>
@@ -955,7 +955,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>256.25</v>
+        <v>256</v>
       </c>
       <c r="D16" t="n">
         <v>268</v>
@@ -990,7 +990,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>257.2</v>
+        <v>257</v>
       </c>
       <c r="D17" t="n">
         <v>269</v>
@@ -1025,7 +1025,7 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>558</v>
+        <v>210</v>
       </c>
       <c r="D2" t="n">
-        <v>603</v>
+        <v>248</v>
       </c>
       <c r="E2" t="n">
-        <v>713</v>
+        <v>279</v>
       </c>
       <c r="F2" t="n">
-        <v>818</v>
+        <v>304</v>
       </c>
       <c r="G2" t="n">
-        <v>980</v>
+        <v>340</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>390</v>
+        <v>241</v>
       </c>
       <c r="D3" t="n">
-        <v>411</v>
+        <v>264</v>
       </c>
       <c r="E3" t="n">
-        <v>490</v>
+        <v>306</v>
       </c>
       <c r="F3" t="n">
-        <v>567</v>
+        <v>343</v>
       </c>
       <c r="G3" t="n">
-        <v>687</v>
+        <v>399</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D4" t="n">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="E4" t="n">
-        <v>457</v>
+        <v>317</v>
       </c>
       <c r="F4" t="n">
-        <v>531</v>
+        <v>357</v>
       </c>
       <c r="G4" t="n">
-        <v>645</v>
+        <v>418</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="D5" t="n">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="F5" t="n">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="G5" t="n">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>228</v>
+        <v>326</v>
       </c>
       <c r="D6" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E6" t="n">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="F6" t="n">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="G6" t="n">
-        <v>519</v>
+        <v>438</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="D7" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E7" t="n">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="F7" t="n">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="G7" t="n">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="D8" t="n">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E8" t="n">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="F8" t="n">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="G8" t="n">
-        <v>516</v>
+        <v>431</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D9" t="n">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E9" t="n">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="F9" t="n">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="G9" t="n">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="D10" t="n">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="E10" t="n">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="F10" t="n">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="G10" t="n">
-        <v>506</v>
+        <v>433</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="D11" t="n">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E11" t="n">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="F11" t="n">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="G11" t="n">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D12" t="n">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E12" t="n">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="F12" t="n">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="G12" t="n">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D13" t="n">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E13" t="n">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="F13" t="n">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="G13" t="n">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D14" t="n">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="E14" t="n">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="F14" t="n">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="G14" t="n">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D15" t="n">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="E15" t="n">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="F15" t="n">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="G15" t="n">
-        <v>511</v>
+        <v>440</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="D16" t="n">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E16" t="n">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="F16" t="n">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="G16" t="n">
-        <v>511</v>
+        <v>443</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D17" t="n">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E17" t="n">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="F17" t="n">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="G17" t="n">
-        <v>512</v>
+        <v>432</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-26 to 2024-11-24</t>
+          <t>2023-02-26 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>416</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>194</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10369 units</t>
+          <t>11976 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>4324</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2168</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1029</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>326</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>210</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>210</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>248</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>279</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>304</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>340</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>241</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>264</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>306</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>343</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>399</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>274</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>272</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>317</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>357</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>418</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>303</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>272</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>318</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>359</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>421</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>326</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>277</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>326</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>370</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>438</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>274</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>278</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>326</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>371</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>439</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>271</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>260</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>309</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>357</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>431</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>268</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>269</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>321</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>373</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>453</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>274</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>264</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>313</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>360</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>433</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>263</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>262</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>314</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>369</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>455</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>269</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>256</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>309</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>366</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>457</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>258</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>255</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>309</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>370</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>466</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>266</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>253</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>305</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>362</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>451</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>249</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>245</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>296</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>352</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>440</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>306</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>241</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>292</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>350</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>443</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>271</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>242</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>292</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>346</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>432</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650 A ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E2" t="n">
         <v>248</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="E3" t="n">
         <v>264</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="E4" t="n">
         <v>272</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>303</v>
+        <v>420</v>
       </c>
       <c r="E5" t="n">
         <v>272</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="E6" t="n">
         <v>277</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="E7" t="n">
         <v>278</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E8" t="n">
         <v>260</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="E9" t="n">
         <v>269</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E10" t="n">
         <v>264</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E11" t="n">
         <v>262</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E12" t="n">
         <v>256</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="E13" t="n">
         <v>255</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E14" t="n">
         <v>253</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="E15" t="n">
         <v>245</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E16" t="n">
         <v>241</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="E17" t="n">
         <v>242</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-26 to 2024-12-29</t>
+          <t>2023-02-26 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>410</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>199</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>192</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11976 units</t>
+          <t>12132 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4855</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2168</t>
+          <t>2486</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1324</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>420</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>227</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="E2" t="n">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="F2" t="n">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="G2" t="n">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="H2" t="n">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="E3" t="n">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="F3" t="n">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="G3" t="n">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="H3" t="n">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="E4" t="n">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="F4" t="n">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="G4" t="n">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="H4" t="n">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>420</v>
+        <v>218</v>
       </c>
       <c r="E5" t="n">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="F5" t="n">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="G5" t="n">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="H5" t="n">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="E6" t="n">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="F6" t="n">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="G6" t="n">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="H6" t="n">
-        <v>438</v>
+        <v>368</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="E7" t="n">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="F7" t="n">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="G7" t="n">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="H7" t="n">
-        <v>439</v>
+        <v>362</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="E8" t="n">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="F8" t="n">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="G8" t="n">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="H8" t="n">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="E9" t="n">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="F9" t="n">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="G9" t="n">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="H9" t="n">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="E10" t="n">
+        <v>222</v>
+      </c>
+      <c r="F10" t="n">
         <v>264</v>
       </c>
-      <c r="F10" t="n">
-        <v>313</v>
-      </c>
       <c r="G10" t="n">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="H10" t="n">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="E11" t="n">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="F11" t="n">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="G11" t="n">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="H11" t="n">
-        <v>455</v>
+        <v>379</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="E12" t="n">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F12" t="n">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="G12" t="n">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="H12" t="n">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="E13" t="n">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="F13" t="n">
+        <v>260</v>
+      </c>
+      <c r="G13" t="n">
         <v>309</v>
       </c>
-      <c r="G13" t="n">
-        <v>370</v>
-      </c>
       <c r="H13" t="n">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="E14" t="n">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="F14" t="n">
+        <v>259</v>
+      </c>
+      <c r="G14" t="n">
         <v>305</v>
       </c>
-      <c r="G14" t="n">
-        <v>362</v>
-      </c>
       <c r="H14" t="n">
-        <v>451</v>
+        <v>378</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="E15" t="n">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F15" t="n">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="G15" t="n">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="H15" t="n">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="E16" t="n">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F16" t="n">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="G16" t="n">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="H16" t="n">
-        <v>443</v>
+        <v>366</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="E17" t="n">
+        <v>201</v>
+      </c>
+      <c r="F17" t="n">
         <v>242</v>
       </c>
-      <c r="F17" t="n">
-        <v>292</v>
-      </c>
       <c r="G17" t="n">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="H17" t="n">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-26 to 2025-01-05</t>
+          <t>2023-02-26 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>408</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>194</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12132 units</t>
+          <t>12331 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4855</t>
+          <t>3476</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>1692</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>815</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>244</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="E2" t="n">
         <v>183</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="E3" t="n">
         <v>207</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="E4" t="n">
         <v>219</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="E5" t="n">
         <v>225</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="E6" t="n">
         <v>226</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
         <v>224</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="E8" t="n">
         <v>221</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="E9" t="n">
         <v>230</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="E10" t="n">
         <v>222</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="E11" t="n">
         <v>217</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="E12" t="n">
         <v>217</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="E13" t="n">
         <v>215</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="E14" t="n">
         <v>215</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>4217</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>2152</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>1039</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>283</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>232</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="E2" t="n">
         <v>183</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="E3" t="n">
         <v>207</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="E4" t="n">
         <v>219</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="E5" t="n">
         <v>225</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="E6" t="n">
         <v>226</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="E7" t="n">
         <v>224</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="E8" t="n">
         <v>221</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="E9" t="n">
         <v>230</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="E10" t="n">
         <v>222</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="E11" t="n">
         <v>217</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="E12" t="n">
         <v>217</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="E13" t="n">
         <v>215</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="E14" t="n">
         <v>215</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="E15" t="n">
         <v>206</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="E16" t="n">
         <v>203</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="E17" t="n">
         <v>201</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4217</t>
+          <t>5404</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2152</t>
+          <t>2776</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1334</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>368</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>292</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="E2" t="n">
         <v>183</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="E3" t="n">
         <v>207</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="E4" t="n">
         <v>219</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="E5" t="n">
         <v>225</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="E6" t="n">
         <v>226</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="E7" t="n">
         <v>224</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="E8" t="n">
         <v>221</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="E9" t="n">
         <v>230</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="E10" t="n">
         <v>222</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="E11" t="n">
         <v>217</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="E12" t="n">
         <v>217</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="E13" t="n">
         <v>215</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="E14" t="n">
         <v>215</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="E15" t="n">
         <v>206</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E16" t="n">
         <v>203</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="E17" t="n">
         <v>201</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-26 to 2025-01-12</t>
+          <t>2023-02-26 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>411</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>192</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12331 units</t>
+          <t>12433 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5404</t>
+          <t>4460</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>2256</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1084</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>299</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>238</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12433 units</t>
+          <t>12439 units</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
+++ b/Sufficient data/forecast_summary_B0CMJSH15D.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="E2" t="n">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="F2" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G2" t="n">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="H2" t="n">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="E3" t="n">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="F3" t="n">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G3" t="n">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="H3" t="n">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="E4" t="n">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="F4" t="n">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="G4" t="n">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="H4" t="n">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E5" t="n">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F5" t="n">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="G5" t="n">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="H5" t="n">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="E6" t="n">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="F6" t="n">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="G6" t="n">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="H6" t="n">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="E7" t="n">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="F7" t="n">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="G7" t="n">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="H7" t="n">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="E8" t="n">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F8" t="n">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G8" t="n">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="H8" t="n">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="E9" t="n">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F9" t="n">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="G9" t="n">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="H9" t="n">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="E10" t="n">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="F10" t="n">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="G10" t="n">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="H10" t="n">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="E11" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F11" t="n">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="G11" t="n">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="H11" t="n">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E12" t="n">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F12" t="n">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="G12" t="n">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="H12" t="n">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="E13" t="n">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F13" t="n">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G13" t="n">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="H13" t="n">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E14" t="n">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F14" t="n">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G14" t="n">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="H14" t="n">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="E15" t="n">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F15" t="n">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="G15" t="n">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="H15" t="n">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>238</v>
+      </c>
+      <c r="E16" t="n">
+        <v>183</v>
+      </c>
+      <c r="F16" t="n">
+        <v>221</v>
+      </c>
+      <c r="G16" t="n">
         <v>264</v>
       </c>
-      <c r="E16" t="n">
-        <v>203</v>
-      </c>
-      <c r="F16" t="n">
-        <v>246</v>
-      </c>
-      <c r="G16" t="n">
-        <v>293</v>
-      </c>
       <c r="H16" t="n">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E17" t="n">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F17" t="n">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G17" t="n">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="H17" t="n">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-26 to 2025-01-19</t>
+          <t>2023-02-26 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>408</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12439 units</t>
+          <t>12578 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4460</t>
+          <t>3921</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>1944</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>915</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>264</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
